--- a/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Counter_Fort_Design.xlsx
+++ b/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Counter_Fort_Design.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="201">
   <si>
     <t>parameters</t>
   </si>
@@ -594,9 +594,6 @@
   </si>
   <si>
     <t>Moment_arm_p</t>
-  </si>
-  <si>
-    <t>=</t>
   </si>
   <si>
     <t>Mv</t>
@@ -719,20 +716,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1514,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,10 +1522,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="10">
         <v>5.6</v>
       </c>
       <c r="C1" s="3"/>
@@ -1548,10 +1543,10 @@
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="10">
         <v>0.3</v>
       </c>
       <c r="C2" s="3"/>
@@ -1569,10 +1564,10 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="10">
         <v>0.6</v>
       </c>
       <c r="C3" s="3"/>
@@ -1590,10 +1585,10 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="10">
         <v>1.35</v>
       </c>
       <c r="C4" s="3"/>
@@ -1611,10 +1606,10 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
@@ -1632,10 +1627,10 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="10">
         <v>0.45200000000000001</v>
       </c>
       <c r="C6" s="3"/>
@@ -1653,10 +1648,10 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <v>18.899999999999999</v>
       </c>
       <c r="C7" s="3"/>
@@ -1674,10 +1669,10 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="10">
         <v>9.8000000000000007</v>
       </c>
       <c r="C8" s="3"/>
@@ -1695,10 +1690,10 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <v>23.6</v>
       </c>
       <c r="C9" s="3"/>
@@ -1716,225 +1711,225 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="4">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <f>(1-B6)*B1</f>
         <v>3.0688</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="4">
         <f>B6*B1</f>
         <v>2.5312000000000001</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="6">
         <f>B4+B2+B5</f>
         <v>3.6500000000000004</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <f>B12*B8</f>
         <v>24.805760000000003</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <f>0.5*B10*B7*B1^2</f>
         <v>98.783999999999963</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="4">
         <f>0.5*B10*B7*B11^2</f>
         <v>29.665230335999993</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="4">
         <f>B10*B7*B11*B12</f>
         <v>48.936803327999989</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="4">
         <f>0.5*(B10*B7+(1-B10)*B8)*B12^2</f>
         <v>41.111412906666665</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="5" t="s">
         <v>174</v>
       </c>
@@ -1954,22 +1949,22 @@
         <v>189</v>
       </c>
       <c r="I20" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="K20" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="K20" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="6" t="s">
         <v>178</v>
       </c>
@@ -2003,14 +1998,14 @@
         <f>I21+J21</f>
         <v>-53.100000000000009</v>
       </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="6" t="s">
         <v>179</v>
       </c>
@@ -2044,14 +2039,14 @@
         <f t="shared" ref="K22:K24" si="2">I22+J22</f>
         <v>-94.323300000000017</v>
       </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="6" t="s">
         <v>180</v>
       </c>
@@ -2085,14 +2080,14 @@
         <f t="shared" si="2"/>
         <v>-500.85000000000008</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="6" t="s">
         <v>181</v>
       </c>
@@ -2125,15 +2120,15 @@
         <f t="shared" si="2"/>
         <v>184.3967999999999</v>
       </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="12" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9" t="s">
         <v>184</v>
       </c>
       <c r="D25" s="6"/>
@@ -2156,16 +2151,16 @@
         <f t="shared" si="3"/>
         <v>-463.87650000000019</v>
       </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="12" t="s">
-        <v>194</v>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6">
@@ -2178,16 +2173,16 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="12" t="s">
-        <v>195</v>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="D27" s="6">
         <f>((-1)*K25)/E26</f>
@@ -2200,16 +2195,16 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="12" t="s">
-        <v>196</v>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="D28" s="6">
         <f>D27-0.5*B13</f>
@@ -2222,16 +2217,16 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="12" t="s">
-        <v>197</v>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="D29" s="4">
         <f>($E$26/$B$13)*(1-(6*$D$28)/$B$13)</f>
@@ -2244,16 +2239,16 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="12" t="s">
-        <v>198</v>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="D30" s="4">
         <f>($E$26/$B$13)*(1+(6*$D$28)/$B$13)</f>
@@ -2266,35 +2261,35 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="10"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="3:11" ht="30" x14ac:dyDescent="0.25">
@@ -2317,13 +2312,13 @@
         <v>189</v>
       </c>
       <c r="I36" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="K36" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
@@ -2442,7 +2437,7 @@
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D40" s="6">
         <v>0</v>
@@ -2543,7 +2538,7 @@
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="9" t="s">
         <v>183</v>
       </c>
       <c r="D43" s="6">
@@ -2577,7 +2572,7 @@
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="9" t="s">
         <v>184</v>
       </c>
       <c r="D44" s="4"/>
@@ -2602,8 +2597,8 @@
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="12" t="s">
-        <v>194</v>
+      <c r="C45" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4">
@@ -2618,8 +2613,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="12" t="s">
-        <v>195</v>
+      <c r="C46" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4">
@@ -2634,8 +2629,8 @@
       <c r="K46" s="4"/>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="12" t="s">
-        <v>196</v>
+      <c r="C47" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4">
@@ -2650,17 +2645,36 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4">
+        <f>($E$45/$B$13)*(1-(6*$E$47)/$B$13)</f>
+        <v>85.419589410346518</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C49" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E48" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="10" t="s">
-        <v>198</v>
-      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4">
+        <f>($E$45/$B$13)*(1+(6*$E$47)/$B$13)</f>
+        <v>16.247794699242505</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Counter_Fort_Design.xlsx
+++ b/AE Sakib/Satkhira DIV-II/2022-23/Regulator/Khejurdangi/Design Calculation/Counter_Fort_Design.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Design-8\Designs_All2\AE Sakib\Satkhira DIV-II\2022-23\Regulator\Khejurdangi\Design Calculation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Basic_Parameter" sheetId="1" r:id="rId1"/>
@@ -18,13 +23,14 @@
     <sheet name="Barrel Load" sheetId="9" r:id="rId9"/>
     <sheet name="Counter_fort_calcualtion" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
+    <sheet name="Counter_fort_calcualtion_Chadni" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="202">
   <si>
     <t>parameters</t>
   </si>
@@ -627,12 +633,15 @@
   </si>
   <si>
     <t>U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -738,6 +747,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -785,7 +797,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -820,7 +832,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1033,9 +1045,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,7 +1076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1078,7 +1090,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1092,7 +1104,7 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1106,7 +1118,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1123,7 +1135,7 @@
         <v>21.62</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1137,7 +1149,7 @@
         <v>-4.5919999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1151,7 +1163,7 @@
         <v>18.04</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1165,7 +1177,7 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1176,7 +1188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1187,7 +1199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1201,7 +1213,7 @@
         <v>-4.92</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1215,7 +1227,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1226,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1240,7 +1252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1254,7 +1266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1268,7 +1280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1282,7 +1294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1296,7 +1308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1310,7 +1322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1324,7 +1336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1338,7 +1350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1352,7 +1364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1366,7 +1378,7 @@
         <v>9.84</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1380,7 +1392,7 @@
         <v>21.32</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1391,7 +1403,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1405,7 +1417,7 @@
         <v>17.876000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1416,7 +1428,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1430,7 +1442,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1444,7 +1456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1458,7 +1470,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1472,7 +1484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1486,7 +1498,7 @@
         <v>17.04</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1509,19 +1521,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>120</v>
       </c>
@@ -1542,7 +1554,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>162</v>
       </c>
@@ -1563,7 +1575,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>163</v>
       </c>
@@ -1584,7 +1596,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>161</v>
       </c>
@@ -1605,7 +1617,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>164</v>
       </c>
@@ -1626,12 +1638,13 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>166</v>
       </c>
       <c r="B6" s="10">
-        <v>0.45200000000000001</v>
+        <f>B12/(B12+B11)</f>
+        <v>0.45178571428571429</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1647,7 +1660,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>167</v>
       </c>
@@ -1668,7 +1681,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>168</v>
       </c>
@@ -1689,7 +1702,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>169</v>
       </c>
@@ -1710,7 +1723,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>173</v>
       </c>
@@ -1732,13 +1745,12 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B11" s="6">
-        <f>(1-B6)*B1</f>
-        <v>3.0688</v>
+        <v>3.07</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1754,13 +1766,12 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="4">
-        <f>B6*B1</f>
-        <v>2.5312000000000001</v>
+      <c r="B12" s="6">
+        <v>2.5299999999999998</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1776,7 +1787,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>171</v>
       </c>
@@ -1798,13 +1809,13 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B14" s="6">
         <f>B12*B8</f>
-        <v>24.805760000000003</v>
+        <v>24.794</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1820,7 +1831,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>181</v>
       </c>
@@ -1842,13 +1853,13 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B16" s="4">
         <f>0.5*B10*B7*B11^2</f>
-        <v>29.665230335999993</v>
+        <v>29.688434999999991</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1864,13 +1875,13 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B17" s="4">
         <f>B10*B7*B11*B12</f>
-        <v>48.936803327999989</v>
+        <v>48.932729999999978</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1886,13 +1897,13 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B18" s="4">
         <f>0.5*(B10*B7+(1-B10)*B8)*B12^2</f>
-        <v>41.111412906666665</v>
+        <v>41.072441666666656</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1908,7 +1919,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
@@ -1927,7 +1938,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="5" t="s">
@@ -1962,7 +1973,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="6" t="s">
@@ -2003,7 +2014,7 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="6" t="s">
@@ -2044,7 +2055,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="6" t="s">
@@ -2085,7 +2096,7 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6" t="s">
@@ -2125,7 +2136,7 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="9" t="s">
@@ -2156,7 +2167,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="9" t="s">
@@ -2178,7 +2189,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="9" t="s">
@@ -2200,7 +2211,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="9" t="s">
@@ -2222,7 +2233,7 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="9" t="s">
@@ -2244,7 +2255,7 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="9" t="s">
@@ -2266,7 +2277,7 @@
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
@@ -2283,16 +2294,16 @@
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C32" s="8"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C36" s="5" t="s">
         <v>174</v>
       </c>
@@ -2321,7 +2332,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C37" s="6" t="str">
         <f>C21</f>
         <v>C1</v>
@@ -2359,9 +2370,9 @@
         <v>-53.100000000000009</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C38" s="6" t="str">
-        <f t="shared" ref="C38:K40" si="5">C22</f>
+        <f t="shared" ref="C38:K39" si="5">C22</f>
         <v>C3</v>
       </c>
       <c r="D38" s="6">
@@ -2397,7 +2408,7 @@
         <v>-94.323300000000017</v>
       </c>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C39" s="6" t="str">
         <f t="shared" si="5"/>
         <v>S2</v>
@@ -2435,7 +2446,7 @@
         <v>-500.85000000000008</v>
       </c>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C40" s="6" t="s">
         <v>200</v>
       </c>
@@ -2444,7 +2455,7 @@
       </c>
       <c r="E40" s="6">
         <f>B14*B13</f>
-        <v>90.541024000000021</v>
+        <v>90.498100000000008</v>
       </c>
       <c r="F40" s="6">
         <f>B13/2</f>
@@ -2458,18 +2469,18 @@
       </c>
       <c r="I40" s="4">
         <f>E40*F40</f>
-        <v>165.23736880000004</v>
+        <v>165.15903250000002</v>
       </c>
       <c r="J40" s="6">
         <f>G40*H40</f>
         <v>0</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="5"/>
-        <v>184.3967999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+        <f>I40+J40</f>
+        <v>165.15903250000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C41" s="6" t="s">
         <v>182</v>
       </c>
@@ -2484,11 +2495,11 @@
       </c>
       <c r="G41" s="4">
         <f>B16*-1</f>
-        <v>-29.665230335999993</v>
+        <v>-29.688434999999991</v>
       </c>
       <c r="H41" s="6">
         <f>B12+B11/3</f>
-        <v>3.5541333333333336</v>
+        <v>3.5533333333333328</v>
       </c>
       <c r="I41" s="6">
         <f>E41*F41</f>
@@ -2496,14 +2507,14 @@
       </c>
       <c r="J41" s="4">
         <f>-1*G41*H41</f>
-        <v>105.43418397818878</v>
+        <v>105.49290569999995</v>
       </c>
       <c r="K41" s="4">
         <f>I41+J41</f>
-        <v>105.43418397818878</v>
-      </c>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+        <v>105.49290569999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C42" s="6" t="s">
         <v>181</v>
       </c>
@@ -2518,11 +2529,11 @@
       </c>
       <c r="G42" s="4">
         <f>B17*-1</f>
-        <v>-48.936803327999989</v>
+        <v>-48.932729999999978</v>
       </c>
       <c r="H42" s="6">
         <f>B12/2</f>
-        <v>1.2656000000000001</v>
+        <v>1.2649999999999999</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" ref="I42:I43" si="6">E42*F42</f>
@@ -2530,14 +2541,17 @@
       </c>
       <c r="J42" s="4">
         <f t="shared" ref="J42:J43" si="7">-1*G42*H42</f>
-        <v>61.934418291916792</v>
+        <v>61.899903449999968</v>
       </c>
       <c r="K42" s="4">
         <f t="shared" ref="K42:K43" si="8">I42+J42</f>
-        <v>61.934418291916792</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+        <v>61.899903449999968</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>201</v>
+      </c>
       <c r="C43" s="9" t="s">
         <v>183</v>
       </c>
@@ -2552,11 +2566,11 @@
       </c>
       <c r="G43" s="4">
         <f>B18*-1</f>
-        <v>-41.111412906666665</v>
+        <v>-41.072441666666656</v>
       </c>
       <c r="H43" s="6">
         <f>B12/3</f>
-        <v>0.84373333333333334</v>
+        <v>0.84333333333333327</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" si="6"/>
@@ -2564,62 +2578,65 @@
       </c>
       <c r="J43" s="4">
         <f t="shared" si="7"/>
-        <v>34.687069449784886</v>
+        <v>34.637759138888875</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="8"/>
-        <v>34.687069449784886</v>
-      </c>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+        <v>34.637759138888875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C44" s="9" t="s">
         <v>184</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4">
         <f>SUM(E37:E43)</f>
-        <v>-185.54297599999998</v>
+        <v>-185.58589999999998</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4">
         <f>SUM(I37:I43)</f>
-        <v>-483.03593120000005</v>
+        <v>-483.11426750000004</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" ref="J44:K44" si="9">SUM(J37:J43)</f>
-        <v>202.05567171989048</v>
+        <v>202.03056828888879</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="9"/>
-        <v>-261.82082828010971</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+        <v>-281.08369921111125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C45" s="9" t="s">
         <v>193</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4">
         <f>E44*-1</f>
-        <v>185.54297599999998</v>
+        <v>185.58589999999998</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="4">
+        <f>SUM(K41:K43)</f>
+        <v>202.03056828888879</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C46" s="9" t="s">
         <v>194</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4">
         <f>((-1)*K44)/E45</f>
-        <v>1.4111061163539262</v>
+        <v>1.5145746482416567</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -2628,14 +2645,14 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C47" s="9" t="s">
         <v>195</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4">
         <f>E46-B13/2</f>
-        <v>-0.41389388364607393</v>
+        <v>-0.31042535175834352</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -2644,14 +2661,14 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C48" s="9" t="s">
         <v>196</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4">
         <f>($E$45/$B$13)*(1-(6*$E$47)/$B$13)</f>
-        <v>85.419589410346518</v>
+        <v>76.791288777131356</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -2660,14 +2677,14 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="9" t="s">
         <v>197</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4">
         <f>($E$45/$B$13)*(1+(6*$E$47)/$B$13)</f>
-        <v>16.247794699242505</v>
+        <v>24.899615332457678</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -2688,9 +2705,1191 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="10">
+        <v>7.65</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="10">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="10">
+        <f>B12/(B12+B11)</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="10">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="10">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="10">
+        <v>23.6</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="4">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="6">
+        <v>7.65</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="6">
+        <f>B4+B2+B5</f>
+        <v>7.3</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="6">
+        <f>B12*B8</f>
+        <v>74.970000000000013</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="6">
+        <f>0.5*B10*B7*B1^2</f>
+        <v>184.34587500000001</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="4">
+        <f>0.5*B10*B7*B11^2</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="4">
+        <f>B10*B7*B11*B12</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="4">
+        <f>0.5*(B10*B7+(1-B10)*B8)*B12^2</f>
+        <v>375.51937500000003</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="6">
+        <f>B2*(B1-B3)</f>
+        <v>2.1150000000000002</v>
+      </c>
+      <c r="E21" s="6">
+        <f>D21*B9*-1</f>
+        <v>-49.914000000000009</v>
+      </c>
+      <c r="F21" s="6">
+        <f>B4+B2/2</f>
+        <v>2.15</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <f>E21*F21</f>
+        <v>-107.31510000000002</v>
+      </c>
+      <c r="J21" s="6">
+        <f>G21*H21*-1</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <f>I21+J21</f>
+        <v>-107.31510000000002</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="6">
+        <f>B13*B3</f>
+        <v>4.38</v>
+      </c>
+      <c r="E22" s="6">
+        <f>D22*B9*-1</f>
+        <v>-103.36800000000001</v>
+      </c>
+      <c r="F22" s="6">
+        <f>B13/2</f>
+        <v>3.65</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" ref="I22:I24" si="0">E22*F22</f>
+        <v>-377.29320000000001</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" ref="J22:J24" si="1">G22*H22*-1</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" ref="K22:K24" si="2">I22+J22</f>
+        <v>-377.29320000000001</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="6">
+        <f>B5*(B1-B3)</f>
+        <v>35.25</v>
+      </c>
+      <c r="E23" s="6">
+        <f>D23*B7*-1</f>
+        <v>-666.22499999999991</v>
+      </c>
+      <c r="F23" s="6">
+        <f>B13-B5/2</f>
+        <v>4.8</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="0"/>
+        <v>-3197.8799999999997</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="2"/>
+        <v>-3197.8799999999997</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <f>B15*-1</f>
+        <v>-184.34587500000001</v>
+      </c>
+      <c r="H24" s="6">
+        <f>B1/3</f>
+        <v>2.5500000000000003</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="1"/>
+        <v>470.08198125000007</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="2"/>
+        <v>470.08198125000007</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <f>SUM(E21:E24)</f>
+        <v>-819.50699999999995</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6">
+        <f>SUM(I21:I24)</f>
+        <v>-3682.4882999999995</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" ref="J25:K25" si="3">SUM(J21:J24)</f>
+        <v>470.08198125000007</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="3"/>
+        <v>-3212.4063187499996</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <f>E25*-1</f>
+        <v>819.50699999999995</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="6">
+        <f>((-1)*K25)/E26</f>
+        <v>3.9199254170495186</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="6">
+        <f>D27-0.5*B13</f>
+        <v>0.26992541704951867</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="4">
+        <f>($E$26/$B$13)*(1-(6*$D$28)/$B$13)</f>
+        <v>87.355347860761881</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" s="4">
+        <f>($E$26/$B$13)*(1+(6*$D$28)/$B$13)</f>
+        <v>137.16711789266279</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C36" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C37" s="6" t="str">
+        <f>C21</f>
+        <v>C1</v>
+      </c>
+      <c r="D37" s="6">
+        <f>D21</f>
+        <v>2.1150000000000002</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" ref="E37:K37" si="4">E21</f>
+        <v>-49.914000000000009</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="4"/>
+        <v>2.15</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="4"/>
+        <v>-107.31510000000002</v>
+      </c>
+      <c r="J37" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <f t="shared" si="4"/>
+        <v>-107.31510000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C38" s="6" t="str">
+        <f t="shared" ref="C38:K39" si="5">C22</f>
+        <v>C3</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" si="5"/>
+        <v>4.38</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="5"/>
+        <v>-103.36800000000001</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="5"/>
+        <v>3.65</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="5"/>
+        <v>-377.29320000000001</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" si="5"/>
+        <v>-377.29320000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C39" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>S2</v>
+      </c>
+      <c r="D39" s="6">
+        <f t="shared" si="5"/>
+        <v>35.25</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="5"/>
+        <v>-666.22499999999991</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="5"/>
+        <v>4.8</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <f>I23</f>
+        <v>-3197.8799999999997</v>
+      </c>
+      <c r="J39" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" si="5"/>
+        <v>-3197.8799999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C40" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <f>B14*B13</f>
+        <v>547.28100000000006</v>
+      </c>
+      <c r="F40" s="6">
+        <f>B13/2</f>
+        <v>3.65</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <f>E40*F40</f>
+        <v>1997.5756500000002</v>
+      </c>
+      <c r="J40" s="6">
+        <f>G40*H40</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <f>I40+J40</f>
+        <v>1997.5756500000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C41" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <f>B16*-1</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <f>B12+B11/3</f>
+        <v>7.65</v>
+      </c>
+      <c r="I41" s="6">
+        <f>E41*F41</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <f>-1*G41*H41</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <f>I41+J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C42" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <f>B17*-1</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <f>B12/2</f>
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" ref="I42:I43" si="6">E42*F42</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" ref="J42:J43" si="7">-1*G42*H42</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" ref="K42:K43" si="8">I42+J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <f>B18*-1</f>
+        <v>-375.51937500000003</v>
+      </c>
+      <c r="H43" s="6">
+        <f>B12/3</f>
+        <v>2.5500000000000003</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="7"/>
+        <v>957.57440625000015</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="8"/>
+        <v>957.57440625000015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C44" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4">
+        <f>SUM(E37:E43)</f>
+        <v>-272.22599999999989</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4">
+        <f>SUM(I37:I43)</f>
+        <v>-1684.9126499999993</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" ref="J44:K44" si="9">SUM(J37:J43)</f>
+        <v>957.57440625000015</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="9"/>
+        <v>-727.33824374999915</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C45" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4">
+        <f>E44*-1</f>
+        <v>272.22599999999989</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4">
+        <f>SUM(K41:K43)</f>
+        <v>957.57440625000015</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C46" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4">
+        <f>((-1)*K44)/E45</f>
+        <v>2.6718176946728067</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C47" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4">
+        <f>E46-B13/2</f>
+        <v>-0.97818230532719319</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C48" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4">
+        <f>($E$45/$B$13)*(1-(6*$E$47)/$B$13)</f>
+        <v>67.2728417620567</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C49" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4">
+        <f>($E$45/$B$13)*(1+(6*$E$47)/$B$13)</f>
+        <v>7.3096239913679257</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2700,9 +3899,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -2764,7 +3963,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2829,7 +4028,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2894,7 +4093,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2959,7 +4158,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3024,7 +4223,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3089,7 +4288,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3154,7 +4353,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3219,7 +4418,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3284,7 +4483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3349,7 +4548,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3425,9 +4624,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -3489,7 +4688,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3554,7 +4753,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3619,7 +4818,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3684,7 +4883,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3749,7 +4948,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3814,7 +5013,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3879,7 +5078,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3944,7 +5143,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4009,7 +5208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4074,7 +5273,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4150,9 +5349,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
@@ -4163,7 +5362,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4177,7 +5376,7 @@
         <v>72.885999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4191,7 +5390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4205,7 +5404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4219,7 +5418,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4230,7 +5429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4244,7 +5443,7 @@
         <v>42.52</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4258,7 +5457,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4272,7 +5471,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4286,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4300,7 +5499,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4314,7 +5513,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4339,9 +5538,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
@@ -4358,7 +5557,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4378,7 +5577,7 @@
         <v>32.22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4409,9 +5608,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>97</v>
       </c>
@@ -4425,7 +5624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4442,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4459,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4476,7 +5675,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4504,9 +5703,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
@@ -4529,7 +5728,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4555,7 +5754,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4581,7 +5780,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4607,7 +5806,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4633,7 +5832,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4659,7 +5858,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4685,7 +5884,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4711,7 +5910,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4737,7 +5936,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4763,7 +5962,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4789,7 +5988,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4815,7 +6014,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4841,7 +6040,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4867,7 +6066,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4893,7 +6092,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4919,7 +6118,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4945,7 +6144,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4971,7 +6170,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4997,7 +6196,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5023,7 +6222,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5049,7 +6248,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5086,9 +6285,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>108</v>
       </c>
@@ -5102,7 +6301,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5119,7 +6318,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5136,7 +6335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5153,7 +6352,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5170,7 +6369,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5187,7 +6386,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5204,7 +6403,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5221,7 +6420,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5238,7 +6437,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5255,7 +6454,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5272,7 +6471,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5289,7 +6488,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5306,7 +6505,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5323,7 +6522,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5340,7 +6539,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5368,9 +6567,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>144</v>
       </c>
@@ -5390,7 +6589,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5413,7 +6612,7 @@
         <v>-2.1280000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5436,7 +6635,7 @@
         <v>2.3690000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5459,7 +6658,7 @@
         <v>1.6578999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
